--- a/project2.xlsx
+++ b/project2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhanwen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419A0455-822B-DA4B-AD34-A2BBE34296DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB2194-D503-E14E-93D0-83FE87913510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16140" activeTab="4" xr2:uid="{7F617450-ABD1-AA49-81AB-673E0923B0AB}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16140" activeTab="5" xr2:uid="{7F617450-ABD1-AA49-81AB-673E0923B0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="attemp1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="best one" sheetId="5" r:id="rId5"/>
+    <sheet name="Emulating PV" sheetId="6" r:id="rId6"/>
+    <sheet name="EPV2" sheetId="7" r:id="rId7"/>
+    <sheet name="EPV3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Vin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +76,30 @@
   </si>
   <si>
     <t>Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">并120 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,6 +495,1120 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="35467423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Emulating PV'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Emulating PV'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Emulating PV'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA15-E147-B517-F03278CC7B1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556570080"/>
+        <c:axId val="556501328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556570080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556501328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556501328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556570080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EPV2'!$A$1:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EPV2'!$B$1:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACC3-124F-8C33-AD3211884B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1828708064"/>
+        <c:axId val="1828625840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1828708064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828625840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1828625840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828708064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EPV3'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EPV3'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53E2-F748-87B6-498215F07C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="370873136"/>
+        <c:axId val="370874816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="370873136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370874816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="370874816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370873136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3436,6 +4577,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4311,6 +5572,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8710,16 +11519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>719157</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>162621</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107108</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>775037</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>86421</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162988</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40517</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8775,6 +11584,129 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F406479D-FE61-F24B-AD45-DDA08D04DC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF0146A-BB74-764C-B82A-2C11F7280CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD1B7D5-1091-CE47-A277-278D4F52BB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10123,8 +13055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7096B9-4D9E-EC45-B04A-7041D92C3E87}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10143,7 +13075,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -10699,6 +13631,414 @@
       <c r="G24">
         <f t="shared" si="3"/>
         <v>0.25886700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA65CF-AD94-8B46-9328-4C4B253D2506}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2.06</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2.08</v>
+      </c>
+      <c r="B3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2.9</v>
+      </c>
+      <c r="B5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3.46</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4.84</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4.88</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4.92</v>
+      </c>
+      <c r="B10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F52D329-D3C9-5945-A60A-21171D2A0CE9}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="B1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="B3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4.28</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4.12</v>
+      </c>
+      <c r="B6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="B7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3.9</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3.84</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3.72</v>
+      </c>
+      <c r="B10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3.6</v>
+      </c>
+      <c r="B11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3.42</v>
+      </c>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3.18</v>
+      </c>
+      <c r="B13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2.72</v>
+      </c>
+      <c r="B15">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+      <c r="B16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2.4</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2.38</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>2.36</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32BD4F-8F2D-284A-BA5A-C0279192DDE3}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>4.84</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4.82</v>
+      </c>
+      <c r="B3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4.8</v>
+      </c>
+      <c r="B4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4.76</v>
+      </c>
+      <c r="B5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4.74</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4.66</v>
+      </c>
+      <c r="B7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4.62</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3.78</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2.9</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2.14</v>
+      </c>
+      <c r="B12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2.04</v>
+      </c>
+      <c r="B13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2.02</v>
+      </c>
+      <c r="B14">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
